--- a/Unity/Assets/Config/Excel/StartConfig/Benchmark/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Benchmark/StartSceneConfig.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>1</v>
@@ -566,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>1</v>
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>1</v>
@@ -602,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>1</v>
@@ -674,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>1</v>
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>1</v>
@@ -848,7 +848,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>1</v>
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7" t="n">
         <v>1</v>
@@ -884,7 +884,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7" t="n">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7" t="n">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D27" s="7" t="n">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7" t="n">
         <v>1</v>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1324,7 +1324,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="7" t="n">
-        <v>30300</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,7 +1344,7 @@
         <v>44</v>
       </c>
       <c r="G5" s="7" t="n">
-        <v>30301</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,7 +1364,7 @@
         <v>45</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>30302</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,7 +1384,7 @@
         <v>46</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>30303</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1404,7 +1404,7 @@
         <v>47</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>30304</v>
+        <v>3482</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Benchmark/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Benchmark/StartSceneConfig.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Benchmark\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEF4AC8-E21D-4EF3-845F-8AC9338ECC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="StartSceneConfig" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Robot区" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Router" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="Robot区" sheetId="2" r:id="rId2"/>
+    <sheet name="Router" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,183 +27,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">##var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SceneType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OuterPort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">##</t>
-  </si>
-  <si>
-    <t xml:space="preserve">所属进程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">所属区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外网端口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gate1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Map3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zpbTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PlayerCache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benchmark8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robot01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RouterManager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Router04</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>SceneType</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>OuterPort</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>所属进程</t>
+  </si>
+  <si>
+    <t>所属区</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>外网端口</t>
+  </si>
+  <si>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Gate1</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map1</t>
+  </si>
+  <si>
+    <t>Map2</t>
+  </si>
+  <si>
+    <t>Map3</t>
+  </si>
+  <si>
+    <t>zpbTest</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>PlayerCache</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Benchmark1</t>
+  </si>
+  <si>
+    <t>Benchmark2</t>
+  </si>
+  <si>
+    <t>Benchmark3</t>
+  </si>
+  <si>
+    <t>Benchmark4</t>
+  </si>
+  <si>
+    <t>Benchmark5</t>
+  </si>
+  <si>
+    <t>Benchmark6</t>
+  </si>
+  <si>
+    <t>Benchmark7</t>
+  </si>
+  <si>
+    <t>Benchmark8</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot01</t>
+  </si>
+  <si>
+    <t>RouterManager</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Router01</t>
+  </si>
+  <si>
+    <t>Router02</t>
+  </si>
+  <si>
+    <t>Router03</t>
+  </si>
+  <si>
+    <t>Router04</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Season</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -229,6 +219,11 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -251,7 +246,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -259,93 +254,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Good" xfId="20"/>
-    <cellStyle name="Excel Built-in Bad" xfId="21"/>
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Bad" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -404,34 +351,342 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="14.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="9"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="1025" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -455,7 +710,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -479,7 +734,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" s="3" customFormat="true" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -503,14 +758,14 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -519,18 +774,18 @@
       <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>30002</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -539,18 +794,18 @@
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="7">
         <v>30003</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="n">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -561,14 +816,14 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -579,14 +834,14 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -597,14 +852,14 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -615,14 +870,14 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -633,14 +888,14 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -651,14 +906,14 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -669,14 +924,14 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -687,14 +942,14 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -705,14 +960,14 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -722,14 +977,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="n">
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -739,14 +994,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2" t="n">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="n">
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -756,14 +1011,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="n">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="n">
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -773,14 +1028,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="n">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7" t="n">
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -790,14 +1045,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="n">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="n">
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -807,14 +1062,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="n">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>3</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -825,14 +1080,14 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="2" t="n">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -843,14 +1098,14 @@
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="n">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2">
         <v>3</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="7">
         <v>1</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -861,14 +1116,14 @@
       </c>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -879,14 +1134,14 @@
       </c>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="2" t="n">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>3</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="7">
         <v>1</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -897,14 +1152,14 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="2" t="n">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="7">
         <v>1</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -915,14 +1170,14 @@
       </c>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7" t="n">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>3</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="7">
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -933,14 +1188,14 @@
       </c>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="n">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>3</v>
       </c>
-      <c r="D28" s="7" t="n">
+      <c r="D28" s="7">
         <v>1</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -951,14 +1206,14 @@
       </c>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="n">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>4</v>
       </c>
-      <c r="D29" s="7" t="n">
+      <c r="D29" s="7">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -969,78 +1224,78 @@
       </c>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="2"/>
-      <c r="D30" s="7"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="D31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
       <c r="D32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
       <c r="D33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
       <c r="D34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="D35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="D36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="9"/>
+    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="2" customWidth="1"/>
+    <col min="9" max="1025" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +1318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1086,7 +1341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1109,15 +1364,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="8">
         <v>200</v>
       </c>
-      <c r="C4" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="n">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
         <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -1129,7 +1384,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1139,7 +1394,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" s="10" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1149,7 +1404,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -1159,7 +1414,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1169,7 +1424,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1179,43 +1434,43 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
@@ -1223,22 +1478,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.57"/>
+    <col min="1" max="1025" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1307,14 +1559,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
         <v>300</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1323,18 +1575,18 @@
       <c r="F4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>3478</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
         <v>301</v>
       </c>
-      <c r="C5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="n">
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1343,18 +1595,18 @@
       <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="7">
         <v>3479</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
         <v>302</v>
       </c>
-      <c r="C6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="n">
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1363,18 +1615,18 @@
       <c r="F6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="7">
         <v>3480</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
         <v>303</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="n">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1383,18 +1635,18 @@
       <c r="F7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="7">
         <v>3481</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
         <v>304</v>
       </c>
-      <c r="C8" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="n">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1403,15 +1655,15 @@
       <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="7">
         <v>3482</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
